--- a/test files/Scoring_Sheet_Cisco_Team_Project_Team_6_December4th.xlsx
+++ b/test files/Scoring_Sheet_Cisco_Team_Project_Team_6_December4th.xlsx
@@ -702,7 +702,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>

--- a/test files/Scoring_Sheet_Cisco_Team_Project_Team_6_December4th.xlsx
+++ b/test files/Scoring_Sheet_Cisco_Team_Project_Team_6_December4th.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="16">
-        <v>43073</v>
+        <v>43074</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -2844,22 +2844,48 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
+      <c r="D42" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="M42" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="N42" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="O42" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P42" s="4">
+        <v>0.01</v>
+      </c>
       <c r="R42" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="11"/>
       <c r="U42" s="13"/>
@@ -2870,22 +2896,48 @@
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
+      <c r="D43" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="O43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P43" s="4">
+        <v>0.01</v>
+      </c>
       <c r="R43" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="11"/>
       <c r="U43" s="13"/>
@@ -2896,22 +2948,48 @@
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
+      <c r="D44" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="O44" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P44" s="4">
+        <v>0.01</v>
+      </c>
       <c r="R44" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" s="11"/>
       <c r="U44" s="13"/>
@@ -2922,22 +3000,48 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
+      <c r="D45" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="O45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0.01</v>
+      </c>
       <c r="R45" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" s="11"/>
       <c r="U45" s="13"/>
